--- a/build/Debug/worker_data.xlsx
+++ b/build/Debug/worker_data.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
     <sheet name="Employees" sheetId="2" r:id="rId2"/>
-    <sheet name="Users" sheetId="3" r:id="rId3"/>
+    <sheet name="Attendance" sheetId="3" r:id="rId3"/>
     <sheet name="Clients" sheetId="4" r:id="rId4"/>
     <sheet name="Projects" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>NEXT_EMPLOYEE_ID</t>
   </si>
@@ -65,25 +65,19 @@
     <t>AssignedProjectId</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>nika</t>
-  </si>
-  <si>
-    <t>stav</t>
-  </si>
-  <si>
-    <t>hong</t>
-  </si>
-  <si>
-    <t>312005</t>
+    <t>EmployeeID</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Present</t>
   </si>
   <si>
     <t>ContactPerson</t>
@@ -498,10 +492,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -511,27 +505,11 @@
       <c r="C1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="D1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E1" t="s">
         <v>19</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -551,10 +529,10 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -574,19 +552,19 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
